--- a/testData/HealthArticles_TestData.xlsx
+++ b/testData/HealthArticles_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="40">
   <si>
     <t>Search Term</t>
   </si>

--- a/testData/HealthArticles_TestData.xlsx
+++ b/testData/HealthArticles_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="40">
   <si>
     <t>Search Term</t>
   </si>

--- a/testData/HealthArticles_TestData.xlsx
+++ b/testData/HealthArticles_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="40">
   <si>
     <t>Search Term</t>
   </si>

--- a/testData/HealthArticles_TestData.xlsx
+++ b/testData/HealthArticles_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="40">
   <si>
     <t>Search Term</t>
   </si>

--- a/testData/HealthArticles_TestData.xlsx
+++ b/testData/HealthArticles_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="40">
   <si>
     <t>Search Term</t>
   </si>
